--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_4328.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_4328.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4328</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Craig Alexander Young</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>08/09/2014</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3674</t>
+          <t>3674</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>10/09/2014</t>
@@ -548,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3675</t>
+          <t>3675</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3676</t>
+          <t>3676</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -640,7 +703,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>10/01/2015</t>
@@ -648,7 +710,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3722</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -688,7 +750,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>12/01/2015</t>
@@ -696,7 +757,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3724</t>
+          <t>3724</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -748,7 +809,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3730</t>
+          <t>3730</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -788,7 +849,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>08/05/2015</t>
@@ -796,7 +856,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3800</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -848,7 +908,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3829</t>
+          <t>3829</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -888,7 +948,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>13/10/2015</t>
@@ -896,7 +955,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3842</t>
+          <t>3842</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -948,7 +1007,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3935</t>
+          <t>3935</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1000,7 +1059,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4000</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1040,7 +1099,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>04/03/2017</t>
@@ -1048,7 +1106,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4003</t>
+          <t>4003</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1100,7 +1158,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4026</t>
+          <t>4026</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1152,7 +1210,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4397</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1204,7 +1262,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4426</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1256,7 +1314,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4427</t>
+          <t>4427</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1296,7 +1354,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>04/08/2020</t>
@@ -1304,7 +1361,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4428</t>
+          <t>4428</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1344,7 +1401,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>08/01/2021</t>
@@ -1352,7 +1408,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4439</t>
+          <t>4439</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1392,7 +1448,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>18/01/2021</t>
@@ -1400,7 +1455,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4442</t>
+          <t>4442</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1452,7 +1507,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4444</t>
+          <t>4444</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1504,7 +1559,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4446</t>
+          <t>4446</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1556,7 +1611,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4448</t>
+          <t>4448</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1608,7 +1663,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4466</t>
+          <t>4466</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1648,7 +1703,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>04/06/2021</t>
@@ -1656,7 +1710,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4467</t>
+          <t>4467</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1708,7 +1762,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4468</t>
+          <t>4468</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1748,7 +1802,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>11/07/2021</t>
@@ -1756,7 +1809,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4474</t>
+          <t>4474</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1796,7 +1849,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>13/07/2021</t>
@@ -1804,7 +1856,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4475</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1856,7 +1908,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4478</t>
+          <t>4478</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1908,7 +1960,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4492</t>
+          <t>4492</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1960,7 +2012,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4494</t>
+          <t>4494</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2012,7 +2064,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4519</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2052,7 +2104,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>13/01/2022</t>
@@ -2060,7 +2111,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4520</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2112,7 +2163,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4522</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2164,7 +2215,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4605</t>
+          <t>4605</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2216,7 +2267,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4608</t>
+          <t>4608</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2268,7 +2319,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4614</t>
+          <t>4614</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2307,7 +2358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2329,7 +2380,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2366,7 +2417,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3674</t>
+          <t>3674</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2403,7 +2454,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3675</t>
+          <t>3675</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2440,7 +2491,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3676</t>
+          <t>3676</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2477,7 +2528,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3722</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2514,7 +2565,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3724</t>
+          <t>3724</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2551,7 +2602,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3730</t>
+          <t>3730</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2588,7 +2639,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3829</t>
+          <t>3829</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2625,7 +2676,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3842</t>
+          <t>3842</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2662,7 +2713,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3935</t>
+          <t>3935</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2699,7 +2750,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4000</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2736,7 +2787,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4003</t>
+          <t>4003</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2773,7 +2824,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4026</t>
+          <t>4026</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2810,7 +2861,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4397</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2847,7 +2898,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4426</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2884,7 +2935,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4427</t>
+          <t>4427</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2921,7 +2972,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4428</t>
+          <t>4428</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2958,7 +3009,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4439</t>
+          <t>4439</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2995,7 +3046,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4442</t>
+          <t>4442</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3032,7 +3083,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4444</t>
+          <t>4444</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3069,7 +3120,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4446</t>
+          <t>4446</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3106,7 +3157,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4448</t>
+          <t>4448</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3143,7 +3194,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4466</t>
+          <t>4466</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3180,7 +3231,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4467</t>
+          <t>4467</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3217,7 +3268,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4468</t>
+          <t>4468</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3254,7 +3305,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4475</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3291,7 +3342,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4478</t>
+          <t>4478</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3328,7 +3379,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4492</t>
+          <t>4492</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3365,7 +3416,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4519</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3402,7 +3453,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4520</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3439,7 +3490,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4522</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3476,7 +3527,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4605</t>
+          <t>4605</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3513,7 +3564,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4608</t>
+          <t>4608</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3550,7 +3601,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4614</t>
+          <t>4614</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3578,6 +3629,461 @@
           <t>1/56</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4428</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4439</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4442</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4466</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.61%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4467</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4468</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4474</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.88%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4478</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4492</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4494</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4519</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4520</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4522</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1.67%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_4328.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_4328.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3690,9 +3691,6 @@
       <c r="B2" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3705,10 +3703,6 @@
           <t>4439</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3724,9 +3718,6 @@
       <c r="B4" t="n">
         <v>11</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3752,7 +3743,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3778,7 +3768,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3794,9 +3783,6 @@
       <c r="B7" t="n">
         <v>10</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3839,10 +3825,6 @@
           <t>4467</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3858,9 +3840,6 @@
       <c r="B10" t="n">
         <v>11</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3873,10 +3852,6 @@
           <t>4474</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3919,10 +3894,6 @@
           <t>4478</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3935,31 +3906,364 @@
           <t>4492</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4494</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4519</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4520</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4522</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1.67%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4426</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4427</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4428</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4439</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4442</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4466</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4467</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4468</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4478</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4494</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4492</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3971,13 +4275,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3985,23 +4282,14 @@
           <t>4520</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>10</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -4011,25 +4299,8 @@
           <t>4522</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4037,27 +4308,14 @@
           <t>4605</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>10</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.67%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4067,11 +4325,16 @@
           <t>4608</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4079,11 +4342,16 @@
           <t>4614</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_4328.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_4328.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -558,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>08/09/2014</t>
@@ -605,6 +604,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>10/09/2014</t>
@@ -704,6 +704,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>10/01/2015</t>
@@ -751,6 +752,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>12/01/2015</t>
@@ -850,6 +852,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>08/05/2015</t>
@@ -949,6 +952,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>13/10/2015</t>
@@ -1100,6 +1104,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>04/03/2017</t>
@@ -1355,6 +1360,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>04/08/2020</t>
@@ -1402,6 +1408,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>08/01/2021</t>
@@ -1449,6 +1456,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>18/01/2021</t>
@@ -1704,6 +1712,7 @@
           <t>24</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>04/06/2021</t>
@@ -1803,6 +1812,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>11/07/2021</t>
@@ -1850,6 +1860,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>13/07/2021</t>
@@ -2105,6 +2116,7 @@
           <t>32</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>13/01/2022</t>
@@ -3634,726 +3646,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4428</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4439</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4442</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>11</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>11</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4446</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4448</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4466</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.61%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4467</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4468</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>11</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4474</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.88%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4478</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4492</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4494</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>10</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4519</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4520</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4522</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4605</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.67%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4608</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4614</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4426</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4427</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4428</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4439</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4442</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4446</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4448</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4466</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4467</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4468</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4478</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4492</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4519</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4520</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4522</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4605</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4608</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4614</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>